--- a/data/xlsx/GroundAttribute.xlsx
+++ b/data/xlsx/GroundAttribute.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>絨毯</t>
+          <t>Carpet</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -529,7 +529,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
     </row>
@@ -546,12 +546,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>草地、芝生</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>草地、芝生</t>
+          <t>Grass</t>
         </is>
       </c>
     </row>
@@ -595,7 +595,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>氷</t>
+          <t>Ice</t>
         </is>
       </c>
     </row>
@@ -612,12 +612,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>雪</t>
+          <t>Snow</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>雪</t>
+          <t>Snow</t>
         </is>
       </c>
     </row>
@@ -639,7 +639,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>金属</t>
+          <t>Metal</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>金属</t>
+          <t>Metal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>金属</t>
+          <t>Metal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>金属</t>
+          <t>Metal</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>金属</t>
+          <t>Metal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>金属</t>
+          <t>Metal</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>砂</t>
+          <t>Sand</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>水たまり</t>
+          <t>Swamp</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>水たまり</t>
+          <t>Swamp</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>川</t>
+          <t>Water</t>
         </is>
       </c>
     </row>
@@ -920,12 +920,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>川</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>川</t>
+          <t>Water</t>
         </is>
       </c>
     </row>
@@ -942,12 +942,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>濡れた土</t>
+          <t>WetSoil</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>水たまり</t>
+          <t>Swamp</t>
         </is>
       </c>
     </row>
@@ -964,12 +964,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>濡れた石</t>
+          <t>WetStone</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>水たまり</t>
+          <t>Swamp</t>
         </is>
       </c>
     </row>
@@ -986,12 +986,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>濡れた草地</t>
+          <t>WetGrass</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>水たまり</t>
+          <t>Swamp</t>
         </is>
       </c>
     </row>
@@ -1008,12 +1008,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>木</t>
+          <t>Wood</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>木</t>
+          <t>Wood</t>
         </is>
       </c>
     </row>
@@ -1030,12 +1030,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>葉</t>
+          <t>Leaf</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
     </row>
@@ -1052,12 +1052,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>雪の草</t>
+          <t>SnowGrass</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>雪</t>
+          <t>Snow</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>砂の草</t>
+          <t>SandGrass</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>草地、芝生</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -1124,7 +1124,7 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>草地、芝生</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -1208,7 +1208,7 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>草地、芝生</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -1222,7 +1222,7 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>草地、芝生</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -1250,7 +1250,7 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>草地、芝生</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -1334,7 +1334,7 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
-          <t>雪</t>
+          <t>Snow</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -1348,7 +1348,7 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
-          <t>雪</t>
+          <t>Snow</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -1362,7 +1362,7 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
-          <t>雪</t>
+          <t>Snow</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -1404,7 +1404,7 @@
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
-          <t>濡れた土</t>
+          <t>WetSoil</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
@@ -1418,7 +1418,7 @@
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
-          <t>濡れた土</t>
+          <t>WetSoil</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -1432,7 +1432,7 @@
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
-          <t>濡れた土</t>
+          <t>WetSoil</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
-          <t>砂</t>
+          <t>Sand</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -1460,7 +1460,7 @@
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
-          <t>絨毯</t>
+          <t>Carpet</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
-          <t>絨毯</t>
+          <t>Carpet</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -1558,7 +1558,7 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
-          <t>木</t>
+          <t>Wood</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -1572,7 +1572,7 @@
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
-          <t>砂</t>
+          <t>Sand</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -1586,7 +1586,7 @@
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
-          <t>草地、芝生</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
@@ -1600,7 +1600,7 @@
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
-          <t>草地、芝生</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -1614,7 +1614,7 @@
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
-          <t>木</t>
+          <t>Wood</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -1642,7 +1642,7 @@
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
-          <t>草地、芝生</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -1716,7 +1716,7 @@
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
-          <t>雪</t>
+          <t>Snow</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
@@ -1730,7 +1730,7 @@
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
-          <t>雪</t>
+          <t>Snow</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
@@ -1776,7 +1776,7 @@
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
-          <t>草地、芝生</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
@@ -1808,7 +1808,7 @@
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
-          <t>草地、芝生</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
@@ -1864,7 +1864,7 @@
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
-          <t>草地、芝生</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
@@ -1906,7 +1906,7 @@
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
-          <t>草地、芝生</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
@@ -1948,7 +1948,7 @@
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
-          <t>草地、芝生</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
@@ -1976,7 +1976,7 @@
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
-          <t>草地、芝生</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
@@ -1990,7 +1990,7 @@
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
-          <t>砂</t>
+          <t>Sand</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
@@ -2046,7 +2046,7 @@
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
@@ -2060,7 +2060,7 @@
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
@@ -2074,7 +2074,7 @@
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
@@ -2088,7 +2088,7 @@
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
@@ -2102,7 +2102,7 @@
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
@@ -2116,7 +2116,7 @@
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
@@ -2130,7 +2130,7 @@
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
@@ -2144,7 +2144,7 @@
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr">
         <is>
-          <t>草地、芝生</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr">
         <is>
-          <t>草地、芝生</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
@@ -2214,7 +2214,7 @@
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
@@ -2228,7 +2228,7 @@
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
@@ -2242,7 +2242,7 @@
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr">
         <is>
-          <t>草地、芝生</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
@@ -2298,7 +2298,7 @@
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr">
         <is>
-          <t>草地、芝生</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
@@ -2312,7 +2312,7 @@
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
@@ -2326,7 +2326,7 @@
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
@@ -2340,7 +2340,7 @@
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr">
         <is>
-          <t>草地、芝生</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
@@ -2396,7 +2396,7 @@
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr">
         <is>
-          <t>草地、芝生</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
@@ -2438,7 +2438,7 @@
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
@@ -2452,7 +2452,7 @@
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
@@ -2480,7 +2480,7 @@
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
@@ -2522,7 +2522,7 @@
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr">
         <is>
-          <t>草地、芝生</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
@@ -2536,7 +2536,7 @@
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
@@ -2550,7 +2550,7 @@
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
@@ -2564,7 +2564,7 @@
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
@@ -2578,7 +2578,7 @@
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
@@ -2592,7 +2592,7 @@
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
@@ -2606,7 +2606,7 @@
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
@@ -2620,7 +2620,7 @@
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
@@ -2634,7 +2634,7 @@
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
@@ -2648,7 +2648,7 @@
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
@@ -2676,7 +2676,7 @@
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
@@ -2704,7 +2704,7 @@
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
@@ -2732,7 +2732,7 @@
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="D147" t="inlineStr"/>
@@ -2746,7 +2746,7 @@
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
@@ -2802,7 +2802,7 @@
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="inlineStr">
         <is>
-          <t>草地、芝生</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="D152" t="inlineStr"/>
@@ -2844,7 +2844,7 @@
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="D155" t="inlineStr"/>
@@ -2872,7 +2872,7 @@
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="D157" t="inlineStr"/>
@@ -2886,7 +2886,7 @@
       <c r="B158" t="inlineStr"/>
       <c r="C158" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="D158" t="inlineStr"/>
@@ -2900,7 +2900,7 @@
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="D159" t="inlineStr"/>
@@ -2928,7 +2928,7 @@
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="inlineStr">
         <is>
-          <t>雪</t>
+          <t>Snow</t>
         </is>
       </c>
       <c r="D161" t="inlineStr"/>
@@ -2942,7 +2942,7 @@
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="inlineStr">
         <is>
-          <t>雪</t>
+          <t>Snow</t>
         </is>
       </c>
       <c r="D162" t="inlineStr"/>
@@ -2956,7 +2956,7 @@
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr">
         <is>
-          <t>砂</t>
+          <t>Sand</t>
         </is>
       </c>
       <c r="D163" t="inlineStr"/>
@@ -2970,7 +2970,7 @@
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
@@ -2984,7 +2984,7 @@
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr">
         <is>
-          <t>石畳、岩肌</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
@@ -2998,7 +2998,7 @@
       <c r="B166" t="inlineStr"/>
       <c r="C166" t="inlineStr">
         <is>
-          <t>草地、芝生</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="D166" t="inlineStr"/>
@@ -3012,7 +3012,7 @@
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="inlineStr">
         <is>
-          <t>草地、芝生</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="D167" t="inlineStr"/>
@@ -3026,7 +3026,7 @@
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="inlineStr">
         <is>
-          <t>草地、芝生</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="D168" t="inlineStr"/>
@@ -3040,7 +3040,7 @@
       <c r="B169" t="inlineStr"/>
       <c r="C169" t="inlineStr">
         <is>
-          <t>草地、芝生</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="D169" t="inlineStr"/>
